--- a/automation/splunk_v4.19.0_cim.xlsx
+++ b/automation/splunk_v4.19.0_cim.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jimxshaw/Projects/samples-python/automation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{877DB377-558F-304B-951C-E1816F024D86}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45A2A13B-5D75-A84F-8191-B9DF7F863C88}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19540" yWindow="500" windowWidth="31660" windowHeight="26580" xr2:uid="{B04C4642-2707-C84C-A9CD-65B8E0916B8E}"/>
   </bookViews>
@@ -2103,7 +2103,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B6F6AB3-7C72-3349-A18C-4A23C2AE3A76}">
   <dimension ref="A1:B498"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
